--- a/BOM V1/BOM_SMA_Driver_V1.0_1xPCB_Cost.xlsx
+++ b/BOM V1/BOM_SMA_Driver_V1.0_1xPCB_Cost.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\MIT\Fall 2018\FLAPS\KiCad Design\SMA_Driver_V1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511503D6-ED57-4EF0-B2E5-060B2A3897CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{F9C64F1D-71CA-4EC5-8E02-A1DED59EAB70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>R4</t>
   </si>
@@ -466,12 +460,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERA-6AEB303V/P30KDACT-ND/1465982</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -861,18 +858,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1768D7C0-E93B-42CD-86D8-90D3AAEAF549}">
-  <dimension ref="A2:M70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,6 +883,11 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>72</v>
@@ -970,7 +972,7 @@
         <v>0.1</v>
       </c>
       <c r="I4">
-        <f>H4*B4</f>
+        <f t="shared" ref="I4:I38" si="1">H4*B4</f>
         <v>0.2</v>
       </c>
       <c r="J4" s="3"/>
@@ -999,7 +1001,7 @@
         <v>1.61</v>
       </c>
       <c r="I5">
-        <f>H5*B5</f>
+        <f t="shared" si="1"/>
         <v>1.61</v>
       </c>
       <c r="J5" s="3"/>
@@ -1028,7 +1030,7 @@
         <v>14.42</v>
       </c>
       <c r="I6">
-        <f>H6*B6</f>
+        <f t="shared" si="1"/>
         <v>14.42</v>
       </c>
       <c r="J6" s="3"/>
@@ -1058,7 +1060,7 @@
         <v>0.17</v>
       </c>
       <c r="I7">
-        <f>H7*B7</f>
+        <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
       <c r="J7" s="3"/>
@@ -1088,7 +1090,7 @@
         <v>0.36</v>
       </c>
       <c r="I8">
-        <f>H8*B8</f>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="J8" s="3"/>
@@ -1118,7 +1120,7 @@
         <v>0.41</v>
       </c>
       <c r="I9">
-        <f>H9*B9</f>
+        <f t="shared" si="1"/>
         <v>0.82</v>
       </c>
       <c r="J9" s="3"/>
@@ -1148,7 +1150,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="I10">
-        <f>H10*B10</f>
+        <f t="shared" si="1"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="J10" s="3"/>
@@ -1178,7 +1180,7 @@
         <v>0.25</v>
       </c>
       <c r="I11">
-        <f>H11*B11</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="J11" s="3"/>
@@ -1208,7 +1210,7 @@
         <v>2.13</v>
       </c>
       <c r="I12">
-        <f>H12*B12</f>
+        <f t="shared" si="1"/>
         <v>21.299999999999997</v>
       </c>
       <c r="J12" s="3"/>
@@ -1238,7 +1240,7 @@
         <v>0.6</v>
       </c>
       <c r="I13">
-        <f>H13*B13</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="J13" s="3"/>
@@ -1268,7 +1270,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I14">
-        <f>H14*B14</f>
+        <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="J14" s="3"/>
@@ -1298,7 +1300,7 @@
         <v>0.34</v>
       </c>
       <c r="I15">
-        <f>H15*B15</f>
+        <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
       <c r="J15" s="3"/>
@@ -1328,7 +1330,7 @@
         <v>0.36</v>
       </c>
       <c r="I16">
-        <f>H16*B16</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="J16" s="3"/>
@@ -1358,7 +1360,7 @@
         <v>1.05</v>
       </c>
       <c r="I17">
-        <f>H17*B17</f>
+        <f t="shared" si="1"/>
         <v>3.1500000000000004</v>
       </c>
       <c r="J17" s="3"/>
@@ -1388,7 +1390,7 @@
         <v>0.35</v>
       </c>
       <c r="I18">
-        <f>H18*B18</f>
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J18" s="3"/>
@@ -1418,7 +1420,7 @@
         <v>0.23</v>
       </c>
       <c r="I19">
-        <f>H19*B19</f>
+        <f t="shared" si="1"/>
         <v>0.69000000000000006</v>
       </c>
       <c r="J19" s="3"/>
@@ -1446,7 +1448,7 @@
         <v>17.5</v>
       </c>
       <c r="I20">
-        <f>H20*B20</f>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="J20" s="3"/>
@@ -1474,7 +1476,7 @@
         <v>7.5</v>
       </c>
       <c r="I21">
-        <f>H21*B21</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="J21" s="3"/>
@@ -1504,7 +1506,7 @@
         <v>0.17</v>
       </c>
       <c r="I22">
-        <f>H22*B22</f>
+        <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
       <c r="J22" s="3"/>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f>H23*B23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="3"/>
@@ -1564,7 +1566,7 @@
         <v>0.23</v>
       </c>
       <c r="I24">
-        <f>H24*B24</f>
+        <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
       <c r="J24" s="3"/>
@@ -1594,7 +1596,7 @@
         <v>0.96</v>
       </c>
       <c r="I25">
-        <f>H25*B25</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
       <c r="J25" s="3"/>
@@ -1624,7 +1626,7 @@
         <v>0.37</v>
       </c>
       <c r="I26">
-        <f>H26*B26</f>
+        <f t="shared" si="1"/>
         <v>2.2199999999999998</v>
       </c>
       <c r="J26" s="3"/>
@@ -1654,7 +1656,7 @@
         <v>0.31</v>
       </c>
       <c r="I27">
-        <f>H27*B27</f>
+        <f t="shared" si="1"/>
         <v>0.62</v>
       </c>
       <c r="J27" s="3"/>
@@ -1684,7 +1686,7 @@
         <v>0.23</v>
       </c>
       <c r="I28">
-        <f>H28*B28</f>
+        <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
       <c r="J28" s="3"/>
@@ -1714,7 +1716,7 @@
         <v>6.4</v>
       </c>
       <c r="I29">
-        <f>H29*B29</f>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="J29" s="3"/>
@@ -1744,7 +1746,7 @@
         <v>0.1</v>
       </c>
       <c r="I30">
-        <f>H30*B30</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J30" s="3"/>
@@ -1774,7 +1776,7 @@
         <v>0.82</v>
       </c>
       <c r="I31">
-        <f>H31*B31</f>
+        <f t="shared" si="1"/>
         <v>0.82</v>
       </c>
       <c r="J31" s="3"/>
@@ -1798,7 +1800,7 @@
         <v>0.68</v>
       </c>
       <c r="I32">
-        <f>H32*B32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="3"/>
@@ -1822,7 +1824,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I33">
-        <f>H33*B33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="3"/>
@@ -1846,7 +1848,7 @@
         <v>0.68</v>
       </c>
       <c r="I34">
-        <f>H34*B34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="3"/>
@@ -1870,7 +1872,7 @@
         <v>0.68</v>
       </c>
       <c r="I35">
-        <f>H35*B35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="3"/>
@@ -1894,7 +1896,7 @@
         <v>0.7</v>
       </c>
       <c r="I36">
-        <f>H36*B36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="3"/>
@@ -1918,7 +1920,7 @@
         <v>0.97</v>
       </c>
       <c r="I37">
-        <f>H37*B37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37" s="3"/>
@@ -1942,7 +1944,7 @@
         <v>0.59</v>
       </c>
       <c r="I38">
-        <f>H38*B38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="3"/>
@@ -1973,7 +1975,7 @@
         <v>0.79</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:I44" si="1">H39*B39</f>
+        <f t="shared" ref="I39:I44" si="2">H39*B39</f>
         <v>0.79</v>
       </c>
       <c r="J39" s="3"/>
@@ -1998,7 +2000,7 @@
         <v>0.36</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40"/>
@@ -2023,7 +2025,7 @@
         <v>0.36</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41"/>
@@ -2048,7 +2050,7 @@
         <v>0.1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42"/>
@@ -2075,7 +2077,7 @@
         <v>0.36</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43"/>
@@ -2102,7 +2104,7 @@
         <v>0.36</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44"/>
@@ -2371,9 +2373,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{40FDACB2-3528-4E86-9323-40377DBCC610}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{E9823FE7-1DAD-4258-8C38-ECD63D615648}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{05D9C22B-2BD6-4012-8B4D-04E4491EBCC2}"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/BOM V1/BOM_SMA_Driver_V1.0_1xPCB_Cost.xlsx
+++ b/BOM V1/BOM_SMA_Driver_V1.0_1xPCB_Cost.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="145">
   <si>
     <t>R4</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERA-6AEB303V/P30KDACT-ND/1465982</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -858,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -866,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A2:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,11 +880,6 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>145</v>
-      </c>
-    </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>72</v>
